--- a/data/hotels_by_city/Dallas/Dallas_shard_580.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_580.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,227 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r416302545-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>244412</t>
+  </si>
+  <si>
+    <t>416302545</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>EWWWWWWWWW stains, cigarette burns, no TV remote, noisy, room smelled like nasty old stinky cigarettes. Shower leaked, no shampoo, mold in shower. Freeway Noise, sketchy people staying there, no security. Unfortunately for us we HAD no choice to have to stay due to my brakes going out so we couldn't drive any further to go else where.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r376497919-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>376497919</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the...I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the pickup and the truck and bring it in the room - not an option! Decided to leave, had to have long discussion with manager before getting refund. Told us some people stayed three months with no problem. I told them then they should be happy we would keep their record intact by parking ourselves and our belongings somewhere else. I can't believe they are allowed to stay in business- it was that bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the...I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the pickup and the truck and bring it in the room - not an option! Decided to leave, had to have long discussion with manager before getting refund. Told us some people stayed three months with no problem. I told them then they should be happy we would keep their record intact by parking ourselves and our belongings somewhere else. I can't believe they are allowed to stay in business- it was that bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r350962088-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>350962088</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Not fit for human (or pet) habitation</t>
+  </si>
+  <si>
+    <t>After having had the truck we rented from Budget break down we were directed to stay at the Motel 6 in north Fort Worth.  We registered for the room, went up, looked around and left.  The room had dirty floors, mold around the bathtub, drawers on the dresser that would not stay closed, torn blankets on the bed, and a bed that was actually a wood platform with a mattress on top of it.  When we went down and demanded a refund, the manager asked why.  We told him the room was deplorable and not fit to stay in.  His response was "I don't know why you think that."  And pretty much indifference.  We didn't stay long enough to find out if the place also had insect, rodents or pterodactyls.   This may be the worst hotel/motel I've ever checked into.  Although, there was a Travel Lodge in Springfield Illinois that gave it a run for it's money...  That one was a time before Trip Advisor came to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>After having had the truck we rented from Budget break down we were directed to stay at the Motel 6 in north Fort Worth.  We registered for the room, went up, looked around and left.  The room had dirty floors, mold around the bathtub, drawers on the dresser that would not stay closed, torn blankets on the bed, and a bed that was actually a wood platform with a mattress on top of it.  When we went down and demanded a refund, the manager asked why.  We told him the room was deplorable and not fit to stay in.  His response was "I don't know why you think that."  And pretty much indifference.  We didn't stay long enough to find out if the place also had insect, rodents or pterodactyls.   This may be the worst hotel/motel I've ever checked into.  Although, there was a Travel Lodge in Springfield Illinois that gave it a run for it's money...  That one was a time before Trip Advisor came to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r231461401-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>231461401</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>OK for the 60 dollars per night</t>
+  </si>
+  <si>
+    <t>This hotel is well situated, not too far from Dallas Forth Worth airport and close enough to Forth Worth Stockyards that we visited on the second day at this place.  You need a car if you decide to stay at this Motel 6 !The surrounding of the hotel look not very nice and could be refreshed and cleaned up.  The place looked and was safe.  The room was clean and furnished as any other Motel 6, as expected.  The receptionist was pleasant and helpful.  The air conditioning was a bit noisy but we could stop it during the night (cool nights in end September).</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r229320612-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>229320612</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Very clean and friendly!</t>
+  </si>
+  <si>
+    <t>The room was very clean and freshly painted. The staff were extremely friendly and knowledgeable of the area. The only problem was my friend's room key wouldn't work, but were compensated without hesitation!!  It would have been nice to have had a place to eat breakfast closer... but well worth the price!! Thank you, Motel 6 , for leaving the light on for us!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r210592286-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>210592286</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Much better than expected</t>
+  </si>
+  <si>
+    <t>When we first pulled up it looked a little tired and dated. We were needing a cheap room for the night and didn't want to spend much, and we weren't expecting much. We had our daughters dog with us so needed somewhere pet friendly. Expedia showed this place to be both cheap and pet friendly, and as it was convenient to where we needed to be so we stopped. I was pleasantly surprised by how clean and fresh the room was. The bathroom had been updated and was very modern and even a bit futuristic. While the room didn't have a bunch of amenities such as a coffee pot or ironing board, the bed was super comfortable and the room quiet. Although our stay was just overnight, it was more than adequate. I'd certainly stay again and recommend it to anyone looking for a cheap, comfortable place for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>When we first pulled up it looked a little tired and dated. We were needing a cheap room for the night and didn't want to spend much, and we weren't expecting much. We had our daughters dog with us so needed somewhere pet friendly. Expedia showed this place to be both cheap and pet friendly, and as it was convenient to where we needed to be so we stopped. I was pleasantly surprised by how clean and fresh the room was. The bathroom had been updated and was very modern and even a bit futuristic. While the room didn't have a bunch of amenities such as a coffee pot or ironing board, the bed was super comfortable and the room quiet. Although our stay was just overnight, it was more than adequate. I'd certainly stay again and recommend it to anyone looking for a cheap, comfortable place for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r179087906-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>179087906</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Not a good nights sleep</t>
+  </si>
+  <si>
+    <t>I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  
+HOWEVER - the straw that broke this camels back is the fact that they...I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  HOWEVER - the straw that broke this camels back is the fact that they invested in the lowest quality mattresses around.  I could feel the coils and the meshing of the mattress and it felt like I was sleeping on an pallet.  I don't know if that's a chain wide choice or this locations choice but come on...WHAT IS YOUR BUSINESS?  Do I need to spell it out for you guys.  Your business is SLEEP.  Preferably with some comfort so the customer wakes up in the morning ready to go and do whatever they need to do.  I woke up this morning stiff and sore and unfortunately I have to stay another night.  I'm not saying you have to have pillow-top mattresses, but you and every Hotel/Motel should have at least middle-of-the-road comfort.The other things I can live with, but you should live up to the business you provide.  You don't go out to a restaurant and get served "Lunchables".  Get my drift?I have to tell you that I have been in several different motels [chains and independents] over the years and you guys have the worst mattresses of them all.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  
+HOWEVER - the straw that broke this camels back is the fact that they...I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  HOWEVER - the straw that broke this camels back is the fact that they invested in the lowest quality mattresses around.  I could feel the coils and the meshing of the mattress and it felt like I was sleeping on an pallet.  I don't know if that's a chain wide choice or this locations choice but come on...WHAT IS YOUR BUSINESS?  Do I need to spell it out for you guys.  Your business is SLEEP.  Preferably with some comfort so the customer wakes up in the morning ready to go and do whatever they need to do.  I woke up this morning stiff and sore and unfortunately I have to stay another night.  I'm not saying you have to have pillow-top mattresses, but you and every Hotel/Motel should have at least middle-of-the-road comfort.The other things I can live with, but you should live up to the business you provide.  You don't go out to a restaurant and get served "Lunchables".  Get my drift?I have to tell you that I have been in several different motels [chains and independents] over the years and you guys have the worst mattresses of them all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r168977584-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>168977584</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Just a place to lay your head</t>
+  </si>
+  <si>
+    <t>Paid 53 dollars (tax included) for this motel. It was nothing special.  You have to pay an extra 2,99 for wi-fi and it takes a while for the pages to load. The room was neat and clean and the bathroom looks great and modern. However there is no microwave, no coffee machine, no mini fridge and no iron. The bed is rather hard but it's not uncomfortable. The tv is rather small and basic. There were several cops circling around. I don't know if it's their hang out spot or what. This is just a little place to stop and sleep. Nothing special.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r136986508-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>136986508</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Didn't expect much</t>
+  </si>
+  <si>
+    <t>This is an average Motel 6 which we stayed at at the last minute because we arrived late and it seemed to be conveniently located for relatively quick access to downtown Fort Worth and to the stockyards. The room was small but clean and recently renovated. The bathroom was nice. We encountered three issues: 1. You had to pay for wifi which is ridiculous in this day and age and included at other hotels in this price range; 2. There was no breakfast, only coffee. Again, other hotels in this price range provide breakfast; and 3. We were awakened by a lady knocking on our door early in the morning looking for her husband/boyfriend who must have been staying there with someone else given the yelling that took place later on. That was a definite reminder of the type of motel we were staying in and the class of people one might encounter there...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This is an average Motel 6 which we stayed at at the last minute because we arrived late and it seemed to be conveniently located for relatively quick access to downtown Fort Worth and to the stockyards. The room was small but clean and recently renovated. The bathroom was nice. We encountered three issues: 1. You had to pay for wifi which is ridiculous in this day and age and included at other hotels in this price range; 2. There was no breakfast, only coffee. Again, other hotels in this price range provide breakfast; and 3. We were awakened by a lady knocking on our door early in the morning looking for her husband/boyfriend who must have been staying there with someone else given the yelling that took place later on. That was a definite reminder of the type of motel we were staying in and the class of people one might encounter there...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r14215889-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>14215889</t>
+  </si>
+  <si>
+    <t>03/11/2008</t>
+  </si>
+  <si>
+    <t>Motel door kicked in</t>
+  </si>
+  <si>
+    <t>After driving from Kansas City, MO to Brownsville, TX Feb, 22, 2008 on vacation, we stopped at the Fort Worth North Motel 6 for the night.  While I had gone to get something to eat, a man and woman kicked the motel room door in on my husband.  The couple acted like they were looking for someone and left.  We immediately reported this to the office and asked for a refund.  We were told they had a new computer system and did not know how to refund the money and asked if we wanted a different room.  I said no.  After 30 minutes of trying and still not being able to refund our money (nor were we asked to transfer motels), we reluctantly took a room upstairs.  They next morning, they still could not find a way to refund the money and gave us cash.
+The curious thing to me was neither hotel clerk looked surprized the door was kicked in, the police weren't called, and my husband was not asked for a description of the suspects.  
+After arriving home, I called guest relations and reported my experience only to be asked, "you were given your money back, what do you want".  
+The next week the motel manager did telephone me to say she was sorry for the experience and that she was taking the initiative to call (I already knew guest relations was making her).  She basically said, there...After driving from Kansas City, MO to Brownsville, TX Feb, 22, 2008 on vacation, we stopped at the Fort Worth North Motel 6 for the night.  While I had gone to get something to eat, a man and woman kicked the motel room door in on my husband.  The couple acted like they were looking for someone and left.  We immediately reported this to the office and asked for a refund.  We were told they had a new computer system and did not know how to refund the money and asked if we wanted a different room.  I said no.  After 30 minutes of trying and still not being able to refund our money (nor were we asked to transfer motels), we reluctantly took a room upstairs.  They next morning, they still could not find a way to refund the money and gave us cash.The curious thing to me was neither hotel clerk looked surprized the door was kicked in, the police weren't called, and my husband was not asked for a description of the suspects.  After arriving home, I called guest relations and reported my experience only to be asked, "you were given your money back, what do you want".  The next week the motel manager did telephone me to say she was sorry for the experience and that she was taking the initiative to call (I already knew guest relations was making her).  She basically said, there was no hole in the door so she doesn't understand how someone could have kicked the door in (even though there was a hole in the wall).To top it off, my husband has Post Traumatic Stress Syndrome and this experience effected the rest of our vacation.This has left an extremely bad taste in my mouth.MoreShow less</t>
+  </si>
+  <si>
+    <t>After driving from Kansas City, MO to Brownsville, TX Feb, 22, 2008 on vacation, we stopped at the Fort Worth North Motel 6 for the night.  While I had gone to get something to eat, a man and woman kicked the motel room door in on my husband.  The couple acted like they were looking for someone and left.  We immediately reported this to the office and asked for a refund.  We were told they had a new computer system and did not know how to refund the money and asked if we wanted a different room.  I said no.  After 30 minutes of trying and still not being able to refund our money (nor were we asked to transfer motels), we reluctantly took a room upstairs.  They next morning, they still could not find a way to refund the money and gave us cash.
+The curious thing to me was neither hotel clerk looked surprized the door was kicked in, the police weren't called, and my husband was not asked for a description of the suspects.  
+After arriving home, I called guest relations and reported my experience only to be asked, "you were given your money back, what do you want".  
+The next week the motel manager did telephone me to say she was sorry for the experience and that she was taking the initiative to call (I already knew guest relations was making her).  She basically said, there...After driving from Kansas City, MO to Brownsville, TX Feb, 22, 2008 on vacation, we stopped at the Fort Worth North Motel 6 for the night.  While I had gone to get something to eat, a man and woman kicked the motel room door in on my husband.  The couple acted like they were looking for someone and left.  We immediately reported this to the office and asked for a refund.  We were told they had a new computer system and did not know how to refund the money and asked if we wanted a different room.  I said no.  After 30 minutes of trying and still not being able to refund our money (nor were we asked to transfer motels), we reluctantly took a room upstairs.  They next morning, they still could not find a way to refund the money and gave us cash.The curious thing to me was neither hotel clerk looked surprized the door was kicked in, the police weren't called, and my husband was not asked for a description of the suspects.  After arriving home, I called guest relations and reported my experience only to be asked, "you were given your money back, what do you want".  The next week the motel manager did telephone me to say she was sorry for the experience and that she was taking the initiative to call (I already knew guest relations was making her).  She basically said, there was no hole in the door so she doesn't understand how someone could have kicked the door in (even though there was a hole in the wall).To top it off, my husband has Post Traumatic Stress Syndrome and this experience effected the rest of our vacation.This has left an extremely bad taste in my mouth.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +869,640 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_580.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_580.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>774lynneb</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r376497919-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the...I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the pickup and the truck and bring it in the room - not an option! Decided to leave, had to have long discussion with manager before getting refund. Told us some people stayed three months with no problem. I told them then they should be happy we would keep their record intact by parking ourselves and our belongings somewhere else. I can't believe they are allowed to stay in business- it was that bad.More</t>
   </si>
   <si>
+    <t>Allan V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r350962088-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>After having had the truck we rented from Budget break down we were directed to stay at the Motel 6 in north Fort Worth.  We registered for the room, went up, looked around and left.  The room had dirty floors, mold around the bathtub, drawers on the dresser that would not stay closed, torn blankets on the bed, and a bed that was actually a wood platform with a mattress on top of it.  When we went down and demanded a refund, the manager asked why.  We told him the room was deplorable and not fit to stay in.  His response was "I don't know why you think that."  And pretty much indifference.  We didn't stay long enough to find out if the place also had insect, rodents or pterodactyls.   This may be the worst hotel/motel I've ever checked into.  Although, there was a Travel Lodge in Springfield Illinois that gave it a run for it's money...  That one was a time before Trip Advisor came to be.More</t>
   </si>
   <si>
+    <t>Pierre L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r231461401-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>OkiePadokie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r229320612-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>The room was very clean and freshly painted. The staff were extremely friendly and knowledgeable of the area. The only problem was my friend's room key wouldn't work, but were compensated without hesitation!!  It would have been nice to have had a place to eat breakfast closer... but well worth the price!! Thank you, Motel 6 , for leaving the light on for us!!!</t>
   </si>
   <si>
+    <t>Frank S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r210592286-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -280,6 +298,9 @@
   </si>
   <si>
     <t>When we first pulled up it looked a little tired and dated. We were needing a cheap room for the night and didn't want to spend much, and we weren't expecting much. We had our daughters dog with us so needed somewhere pet friendly. Expedia showed this place to be both cheap and pet friendly, and as it was convenient to where we needed to be so we stopped. I was pleasantly surprised by how clean and fresh the room was. The bathroom had been updated and was very modern and even a bit futuristic. While the room didn't have a bunch of amenities such as a coffee pot or ironing board, the bed was super comfortable and the room quiet. Although our stay was just overnight, it was more than adequate. I'd certainly stay again and recommend it to anyone looking for a cheap, comfortable place for the night.More</t>
+  </si>
+  <si>
+    <t>Brad G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r179087906-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
@@ -308,6 +329,9 @@
 HOWEVER - the straw that broke this camels back is the fact that they...I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  HOWEVER - the straw that broke this camels back is the fact that they invested in the lowest quality mattresses around.  I could feel the coils and the meshing of the mattress and it felt like I was sleeping on an pallet.  I don't know if that's a chain wide choice or this locations choice but come on...WHAT IS YOUR BUSINESS?  Do I need to spell it out for you guys.  Your business is SLEEP.  Preferably with some comfort so the customer wakes up in the morning ready to go and do whatever they need to do.  I woke up this morning stiff and sore and unfortunately I have to stay another night.  I'm not saying you have to have pillow-top mattresses, but you and every Hotel/Motel should have at least middle-of-the-road comfort.The other things I can live with, but you should live up to the business you provide.  You don't go out to a restaurant and get served "Lunchables".  Get my drift?I have to tell you that I have been in several different motels [chains and independents] over the years and you guys have the worst mattresses of them all.More</t>
   </si>
   <si>
+    <t>herjourney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r168977584-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -326,6 +350,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>hilandwil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r136986508-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
   </si>
   <si>
     <t>This is an average Motel 6 which we stayed at at the last minute because we arrived late and it seemed to be conveniently located for relatively quick access to downtown Fort Worth and to the stockyards. The room was small but clean and recently renovated. The bathroom was nice. We encountered three issues: 1. You had to pay for wifi which is ridiculous in this day and age and included at other hotels in this price range; 2. There was no breakfast, only coffee. Again, other hotels in this price range provide breakfast; and 3. We were awakened by a lady knocking on our door early in the morning looking for her husband/boyfriend who must have been staying there with someone else given the yelling that took place later on. That was a definite reminder of the type of motel we were staying in and the class of people one might encounter there...More</t>
+  </si>
+  <si>
+    <t>grandmacarrots</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r14215889-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
@@ -873,43 +903,47 @@
       <c r="A2" t="n">
         <v>6565</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169438</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -929,50 +963,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6565</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -992,50 +1030,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6565</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1053,50 +1095,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6565</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>97871</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1116,41 +1162,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6565</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -1179,50 +1229,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6565</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6657</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1246,50 +1300,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6565</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>89257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1313,50 +1371,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6565</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1380,50 +1442,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6565</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169442</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1447,41 +1513,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6565</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1500,7 +1570,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_580.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_580.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>774lynneb</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r535194979-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>244412</t>
+  </si>
+  <si>
+    <t>535194979</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Horrible Scary Place - First and Last Motel 6 Visit</t>
+  </si>
+  <si>
+    <t>This was our first ever visit to a motel, and not being able to find anywhere at late notice near to The Stockyards, we booked Motel 6. It was a scary experience - as the note says on the inside of the door 'Keep Locked whilst Inside for your Safety'. And judging by the comings and goings and dubious activity outside the room all night, they're not wrong. Blimey, you see some interesting sites. The outside is also very poorly lit at night, is next to big industrial empty areas and feels very unsafe. The place is horrible. The room is shabby and a bit dirty and the guy on reception seems to just be trying to get through the day. I would avoid.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This was our first ever visit to a motel, and not being able to find anywhere at late notice near to The Stockyards, we booked Motel 6. It was a scary experience - as the note says on the inside of the door 'Keep Locked whilst Inside for your Safety'. And judging by the comings and goings and dubious activity outside the room all night, they're not wrong. Blimey, you see some interesting sites. The outside is also very poorly lit at night, is next to big industrial empty areas and feels very unsafe. The place is horrible. The room is shabby and a bit dirty and the guy on reception seems to just be trying to get through the day. I would avoid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r494696378-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>494696378</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Worst visit ever</t>
+  </si>
+  <si>
+    <t>Well as we came to motel 6 after a hard week of work .checked in went to our room to clean up and what no hot water dirty room after paying 350 dollars how could this be .then I go to ask for toilet paper and they give me the third degree asking me for I'd ss birth certificate I couldn't believe it .</t>
+  </si>
+  <si>
+    <t>June 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r416302545-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>244412</t>
-  </si>
-  <si>
     <t>416302545</t>
   </si>
   <si>
@@ -183,9 +222,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Paul S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r376497919-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,9 +246,6 @@
     <t>I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the...I am a level 6 traveler with more than 300 reviews and nearly a hundred helpful votes, so I know what I am talking about. This is not only the worst Motel 6 ever, but probably the worst motel I have ever been to in my life, period. I was helping my son move to the area for a job so we had a pickup and a uhaul pulling a trailer. We stopped first at another motel that was full, than came here because we had to drive that way due to construction. Stopped due to exhaustion and motel 6 has always been a good bargain. However, parking lot was dimly lit and only place to park uhaul was away from building. We had a lock on it, but someone could take bolt cutters to it and everything would be gone before we knew it. Owners were Indian or Pakastani  ,which doesn't bother me except for the poor English skills. The rundown, dirty, unkempt and unsafe surroundings are what disturbed me. When we entered the room, there were lots of stains and the bath tub faucet was running. Room was dirty and poorly lit. One guy there for an extended stay asked me to watch his luggage in the hallway for a few minutes while he went  to the front desk because he said the place was full of thieves. A couple others told me to take everything off the pickup and the truck and bring it in the room - not an option! Decided to leave, had to have long discussion with manager before getting refund. Told us some people stayed three months with no problem. I told them then they should be happy we would keep their record intact by parking ourselves and our belongings somewhere else. I can't believe they are allowed to stay in business- it was that bad.More</t>
   </si>
   <si>
-    <t>Allan V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r350962088-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,7 +267,49 @@
     <t>After having had the truck we rented from Budget break down we were directed to stay at the Motel 6 in north Fort Worth.  We registered for the room, went up, looked around and left.  The room had dirty floors, mold around the bathtub, drawers on the dresser that would not stay closed, torn blankets on the bed, and a bed that was actually a wood platform with a mattress on top of it.  When we went down and demanded a refund, the manager asked why.  We told him the room was deplorable and not fit to stay in.  His response was "I don't know why you think that."  And pretty much indifference.  We didn't stay long enough to find out if the place also had insect, rodents or pterodactyls.   This may be the worst hotel/motel I've ever checked into.  Although, there was a Travel Lodge in Springfield Illinois that gave it a run for it's money...  That one was a time before Trip Advisor came to be.More</t>
   </si>
   <si>
-    <t>Pierre L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r324431326-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>324431326</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Worst Motel 6 ever</t>
+  </si>
+  <si>
+    <t>I stay at alot of motel 6 every month and this is got to be the worst one I have ever stayed at, after refusing to accept my 2 o'clock check out for AARP they bugged me over four times reminding me it was almost 11 o'clock, no vending machines and poor English skills for the desk personnel, I will never stay at this motel 6 again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r279152822-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>279152822</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE MANAGEMENT!!!</t>
+  </si>
+  <si>
+    <t>Making the reservation online was a breeze! After speaking with a Guest Rep at this hotel and making sure that I would be able to pay cash for the room when I arrived, I booked the room. Unfortunately, I had car trouble that left me stranded on the side of the road. I immediately called this establishment and spoke with the Guest Rep again and explained my situation, making sure he understood I would NOT be occupying this room, he proceeds to tell me that he can hold the room until 6 a.m. I explained that more than likely I would NOT be there considering my car trouble. He never EVER stated that if I didn't show by 6 a.m. that my card would be charged, WHICH IT WAS! I contacted the Manager, who basically told me I was a liar that I NEVER called and that I was also a "no show guest" so my card was charged. I preceded to let him know that I would dispute it with the bank and that I would be contacting the Motel 6 corporate office to make them aware of his complete lack of professionalism. Under no circumstances should this man be the GM of ANY facility!! Horrible attitude, no customer service and in my opinion a THIEF!! And on top of that this person has also found it necessary to email me TWICE and make sure I understand that I...Making the reservation online was a breeze! After speaking with a Guest Rep at this hotel and making sure that I would be able to pay cash for the room when I arrived, I booked the room. Unfortunately, I had car trouble that left me stranded on the side of the road. I immediately called this establishment and spoke with the Guest Rep again and explained my situation, making sure he understood I would NOT be occupying this room, he proceeds to tell me that he can hold the room until 6 a.m. I explained that more than likely I would NOT be there considering my car trouble. He never EVER stated that if I didn't show by 6 a.m. that my card would be charged, WHICH IT WAS! I contacted the Manager, who basically told me I was a liar that I NEVER called and that I was also a "no show guest" so my card was charged. I preceded to let him know that I would dispute it with the bank and that I would be contacting the Motel 6 corporate office to make them aware of his complete lack of professionalism. Under no circumstances should this man be the GM of ANY facility!! Horrible attitude, no customer service and in my opinion a THIEF!! And on top of that this person has also found it necessary to email me TWICE and make sure I understand that I was a "no show guest" and that is why I was charged! UNACCEPTABLE!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Making the reservation online was a breeze! After speaking with a Guest Rep at this hotel and making sure that I would be able to pay cash for the room when I arrived, I booked the room. Unfortunately, I had car trouble that left me stranded on the side of the road. I immediately called this establishment and spoke with the Guest Rep again and explained my situation, making sure he understood I would NOT be occupying this room, he proceeds to tell me that he can hold the room until 6 a.m. I explained that more than likely I would NOT be there considering my car trouble. He never EVER stated that if I didn't show by 6 a.m. that my card would be charged, WHICH IT WAS! I contacted the Manager, who basically told me I was a liar that I NEVER called and that I was also a "no show guest" so my card was charged. I preceded to let him know that I would dispute it with the bank and that I would be contacting the Motel 6 corporate office to make them aware of his complete lack of professionalism. Under no circumstances should this man be the GM of ANY facility!! Horrible attitude, no customer service and in my opinion a THIEF!! And on top of that this person has also found it necessary to email me TWICE and make sure I understand that I...Making the reservation online was a breeze! After speaking with a Guest Rep at this hotel and making sure that I would be able to pay cash for the room when I arrived, I booked the room. Unfortunately, I had car trouble that left me stranded on the side of the road. I immediately called this establishment and spoke with the Guest Rep again and explained my situation, making sure he understood I would NOT be occupying this room, he proceeds to tell me that he can hold the room until 6 a.m. I explained that more than likely I would NOT be there considering my car trouble. He never EVER stated that if I didn't show by 6 a.m. that my card would be charged, WHICH IT WAS! I contacted the Manager, who basically told me I was a liar that I NEVER called and that I was also a "no show guest" so my card was charged. I preceded to let him know that I would dispute it with the bank and that I would be contacting the Motel 6 corporate office to make them aware of his complete lack of professionalism. Under no circumstances should this man be the GM of ANY facility!! Horrible attitude, no customer service and in my opinion a THIEF!! And on top of that this person has also found it necessary to email me TWICE and make sure I understand that I was a "no show guest" and that is why I was charged! UNACCEPTABLE!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r231461401-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
@@ -255,12 +330,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>OkiePadokie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r229320612-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -276,9 +345,6 @@
     <t>The room was very clean and freshly painted. The staff were extremely friendly and knowledgeable of the area. The only problem was my friend's room key wouldn't work, but were compensated without hesitation!!  It would have been nice to have had a place to eat breakfast closer... but well worth the price!! Thank you, Motel 6 , for leaving the light on for us!!!</t>
   </si>
   <si>
-    <t>Frank S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r210592286-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,7 +366,34 @@
     <t>When we first pulled up it looked a little tired and dated. We were needing a cheap room for the night and didn't want to spend much, and we weren't expecting much. We had our daughters dog with us so needed somewhere pet friendly. Expedia showed this place to be both cheap and pet friendly, and as it was convenient to where we needed to be so we stopped. I was pleasantly surprised by how clean and fresh the room was. The bathroom had been updated and was very modern and even a bit futuristic. While the room didn't have a bunch of amenities such as a coffee pot or ironing board, the bed was super comfortable and the room quiet. Although our stay was just overnight, it was more than adequate. I'd certainly stay again and recommend it to anyone looking for a cheap, comfortable place for the night.More</t>
   </si>
   <si>
-    <t>Brad G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r201494688-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>201494688</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Worst motel 6 ever!</t>
+  </si>
+  <si>
+    <t>First off my room key/card kept locking me out! Ive had to go to front desk 2 times already! 2nd blood stain on the front wall of room hiding behind the curtain! 3rd my internet card was supposed to be good for 24 hrs but stopped 5 hours short of that,I went to front desk hoping they could just give me another one but nope! The lady at front desk said I would have to call the number on card! Bullcrap!! Why couldn't they just give me another card?? I had to pay 2.99 which is very ridiculous!! Never staying here again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r184873608-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>184873608</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Checking in was easy. The front desk clerk was polite. We had stayed there to attend a concert. Only complaint was people who came in late made all kinds of noise. We would stay there again. They have coffee for the morning which my husband went and got.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r179087906-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
@@ -322,16 +415,10 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  
 HOWEVER - the straw that broke this camels back is the fact that they...I'm a OTR Truck Driver and I stay at a motel just about every weekend in a different city just about every time.  I've never bothered to write a review because I choose the LOW budget motels because all I need to do is rest, to be honest, I don't expect a lot.  Recently, the Motel 6 chain has begun renovating many of its motels to a more up to date style.  The changes are to save money in the long run, but many times the executives who think up this crap up don't have a clue and cannot think outside the box.  They now have cheap wood panel flooring and nothing on the walls.  they look at as an easy clean-up and no chance for stains to build up over time.  The customer looks at it as living in an Echo Chamber.  The noises are amplified and the sound resonates thru the walls.  The now have shower stalls.  They look at it as a water saving device as the customers can only take a shower instead of a water guzzling bath.  They now have a water limiting sink that spritzes out low stream water.  Again they look at it as a water saving device.  The customer has to wait 10 minutes for hot water to make its way thru the lines just to wash up.  HOWEVER - the straw that broke this camels back is the fact that they invested in the lowest quality mattresses around.  I could feel the coils and the meshing of the mattress and it felt like I was sleeping on an pallet.  I don't know if that's a chain wide choice or this locations choice but come on...WHAT IS YOUR BUSINESS?  Do I need to spell it out for you guys.  Your business is SLEEP.  Preferably with some comfort so the customer wakes up in the morning ready to go and do whatever they need to do.  I woke up this morning stiff and sore and unfortunately I have to stay another night.  I'm not saying you have to have pillow-top mattresses, but you and every Hotel/Motel should have at least middle-of-the-road comfort.The other things I can live with, but you should live up to the business you provide.  You don't go out to a restaurant and get served "Lunchables".  Get my drift?I have to tell you that I have been in several different motels [chains and independents] over the years and you guys have the worst mattresses of them all.More</t>
   </si>
   <si>
-    <t>herjourney</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r168977584-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -350,9 +437,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>hilandwil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r136986508-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -374,7 +458,56 @@
     <t>This is an average Motel 6 which we stayed at at the last minute because we arrived late and it seemed to be conveniently located for relatively quick access to downtown Fort Worth and to the stockyards. The room was small but clean and recently renovated. The bathroom was nice. We encountered three issues: 1. You had to pay for wifi which is ridiculous in this day and age and included at other hotels in this price range; 2. There was no breakfast, only coffee. Again, other hotels in this price range provide breakfast; and 3. We were awakened by a lady knocking on our door early in the morning looking for her husband/boyfriend who must have been staying there with someone else given the yelling that took place later on. That was a definite reminder of the type of motel we were staying in and the class of people one might encounter there...More</t>
   </si>
   <si>
-    <t>grandmacarrots</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r70870325-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>70870325</t>
+  </si>
+  <si>
+    <t>07/14/2010</t>
+  </si>
+  <si>
+    <t>The A/C wasn't working, I couldn't get any sleep and the guy working behid the desk couldn't of cared less.</t>
+  </si>
+  <si>
+    <t>I arrived at the 
+Motel 6 #153 
+I-35W at 33rd Street/Papurt Drive 3271 I-35W
+Ft Worth, TX 76106
+I was given room #114. When I arrived I turned on the A/C and settled in. I wanted to connect to the internet to get some work done but when I connected to the signal, the signal wasn't connected to the internet. I called the front desk to find out that if I want internet access I have to go back up to the office and purchase a wifi card for $2.99. I couldn't believe that I had to pay extra for wifi but there wasn't even a sign up at the office so I had to walk all the way back to the office to buy the card. That isn't a good mark in my book. 
+If that wasn't bad enough the A/C was barely doing it's job. I told the guy that worked behind the counter about that and he just looked at me and said that he could come down and look at it but then he never did. Needless to say I laid on top of the blankets in my skimpies sweating most of the night. I failed to get any sleep to amount to much. I feel at the least that I should either get a refund or another night in a room that the A/C works. It will probably never happen as most corporation don't care...I arrived at the Motel 6 #153 I-35W at 33rd Street/Papurt Drive 3271 I-35WFt Worth, TX 76106I was given room #114. When I arrived I turned on the A/C and settled in. I wanted to connect to the internet to get some work done but when I connected to the signal, the signal wasn't connected to the internet. I called the front desk to find out that if I want internet access I have to go back up to the office and purchase a wifi card for $2.99. I couldn't believe that I had to pay extra for wifi but there wasn't even a sign up at the office so I had to walk all the way back to the office to buy the card. That isn't a good mark in my book. If that wasn't bad enough the A/C was barely doing it's job. I told the guy that worked behind the counter about that and he just looked at me and said that he could come down and look at it but then he never did. Needless to say I laid on top of the blankets in my skimpies sweating most of the night. I failed to get any sleep to amount to much. I feel at the least that I should either get a refund or another night in a room that the A/C works. It will probably never happen as most corporation don't care about their customers and that is mainly because they are going to make their money regardless if they make things right with me or not. Now I have a meeting to go to and my eyes are blood shot and I have had a total of 30 minutes sleep all night.. I would not recommend this particular Motel 6 and  I'm starting to question if you don't just get what you pay for.If you decide to stay here and you have a problem with your room then good luck to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I arrived at the 
+Motel 6 #153 
+I-35W at 33rd Street/Papurt Drive 3271 I-35W
+Ft Worth, TX 76106
+I was given room #114. When I arrived I turned on the A/C and settled in. I wanted to connect to the internet to get some work done but when I connected to the signal, the signal wasn't connected to the internet. I called the front desk to find out that if I want internet access I have to go back up to the office and purchase a wifi card for $2.99. I couldn't believe that I had to pay extra for wifi but there wasn't even a sign up at the office so I had to walk all the way back to the office to buy the card. That isn't a good mark in my book. 
+If that wasn't bad enough the A/C was barely doing it's job. I told the guy that worked behind the counter about that and he just looked at me and said that he could come down and look at it but then he never did. Needless to say I laid on top of the blankets in my skimpies sweating most of the night. I failed to get any sleep to amount to much. I feel at the least that I should either get a refund or another night in a room that the A/C works. It will probably never happen as most corporation don't care...I arrived at the Motel 6 #153 I-35W at 33rd Street/Papurt Drive 3271 I-35WFt Worth, TX 76106I was given room #114. When I arrived I turned on the A/C and settled in. I wanted to connect to the internet to get some work done but when I connected to the signal, the signal wasn't connected to the internet. I called the front desk to find out that if I want internet access I have to go back up to the office and purchase a wifi card for $2.99. I couldn't believe that I had to pay extra for wifi but there wasn't even a sign up at the office so I had to walk all the way back to the office to buy the card. That isn't a good mark in my book. If that wasn't bad enough the A/C was barely doing it's job. I told the guy that worked behind the counter about that and he just looked at me and said that he could come down and look at it but then he never did. Needless to say I laid on top of the blankets in my skimpies sweating most of the night. I failed to get any sleep to amount to much. I feel at the least that I should either get a refund or another night in a room that the A/C works. It will probably never happen as most corporation don't care about their customers and that is mainly because they are going to make their money regardless if they make things right with me or not. Now I have a meeting to go to and my eyes are blood shot and I have had a total of 30 minutes sleep all night.. I would not recommend this particular Motel 6 and  I'm starting to question if you don't just get what you pay for.If you decide to stay here and you have a problem with your room then good luck to you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r48946271-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>48946271</t>
+  </si>
+  <si>
+    <t>11/10/2009</t>
+  </si>
+  <si>
+    <t>Just wanted you to know</t>
+  </si>
+  <si>
+    <t>Although the front desk and the outside of the motel was inviting, It was quite the contrary when entering our room. The room was VERY SMALL, No refrig, no microwave, No soaps or shampoos, The batroom was nice until we saw two cockroaches, My grandson wanted us to leave imediately...We called several other Motel 6 locations in the area, but they were all booked and we had paid for three consective days with our credit card. We had to settle with keeping all our stuff off the floor (the floor was very dirty and sticky) I did ask the front desk to clean the floor when we left, and they told us they did, but the floors remained sticky. My husband was angered most of our stay, but there was no-where else to go. The last night the stool would not flush and my husband went down to let the front desk know, and found the lobby full of disgruntal guests, some wanted their money back, some wanted things fixed in their rooms, and he felt bad for the woman behind the counter and left. After several atempts each time we used the toilet we were able to flush the thing. Ifter all this the most horrid thing that still hangs over the whole experience was, the fact that we killed over ten cockroaches over a three day period. How revolting. My grandson's father and my son remain very upset...Although the front desk and the outside of the motel was inviting, It was quite the contrary when entering our room. The room was VERY SMALL, No refrig, no microwave, No soaps or shampoos, The batroom was nice until we saw two cockroaches, My grandson wanted us to leave imediately...We called several other Motel 6 locations in the area, but they were all booked and we had paid for three consective days with our credit card. We had to settle with keeping all our stuff off the floor (the floor was very dirty and sticky) I did ask the front desk to clean the floor when we left, and they told us they did, but the floors remained sticky. My husband was angered most of our stay, but there was no-where else to go. The last night the stool would not flush and my husband went down to let the front desk know, and found the lobby full of disgruntal guests, some wanted their money back, some wanted things fixed in their rooms, and he felt bad for the woman behind the counter and left. After several atempts each time we used the toilet we were able to flush the thing. Ifter all this the most horrid thing that still hangs over the whole experience was, the fact that we killed over ten cockroaches over a three day period. How revolting. My grandson's father and my son remain very upset that we had no choice than to remain at this Motel . We stay at Motel 6's when we travel and this one was by far the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>Although the front desk and the outside of the motel was inviting, It was quite the contrary when entering our room. The room was VERY SMALL, No refrig, no microwave, No soaps or shampoos, The batroom was nice until we saw two cockroaches, My grandson wanted us to leave imediately...We called several other Motel 6 locations in the area, but they were all booked and we had paid for three consective days with our credit card. We had to settle with keeping all our stuff off the floor (the floor was very dirty and sticky) I did ask the front desk to clean the floor when we left, and they told us they did, but the floors remained sticky. My husband was angered most of our stay, but there was no-where else to go. The last night the stool would not flush and my husband went down to let the front desk know, and found the lobby full of disgruntal guests, some wanted their money back, some wanted things fixed in their rooms, and he felt bad for the woman behind the counter and left. After several atempts each time we used the toilet we were able to flush the thing. Ifter all this the most horrid thing that still hangs over the whole experience was, the fact that we killed over ten cockroaches over a three day period. How revolting. My grandson's father and my son remain very upset...Although the front desk and the outside of the motel was inviting, It was quite the contrary when entering our room. The room was VERY SMALL, No refrig, no microwave, No soaps or shampoos, The batroom was nice until we saw two cockroaches, My grandson wanted us to leave imediately...We called several other Motel 6 locations in the area, but they were all booked and we had paid for three consective days with our credit card. We had to settle with keeping all our stuff off the floor (the floor was very dirty and sticky) I did ask the front desk to clean the floor when we left, and they told us they did, but the floors remained sticky. My husband was angered most of our stay, but there was no-where else to go. The last night the stool would not flush and my husband went down to let the front desk know, and found the lobby full of disgruntal guests, some wanted their money back, some wanted things fixed in their rooms, and he felt bad for the woman behind the counter and left. After several atempts each time we used the toilet we were able to flush the thing. Ifter all this the most horrid thing that still hangs over the whole experience was, the fact that we killed over ten cockroaches over a three day period. How revolting. My grandson's father and my son remain very upset that we had no choice than to remain at this Motel . We stay at Motel 6's when we travel and this one was by far the worst.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d244412-r14215889-Motel_6_Ft_Worth_North-Fort_Worth_Texas.html</t>
@@ -903,59 +1036,55 @@
       <c r="A2" t="n">
         <v>6565</v>
       </c>
-      <c r="B2" t="n">
-        <v>169438</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -963,123 +1092,111 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6565</v>
       </c>
-      <c r="B3" t="n">
-        <v>997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6565</v>
       </c>
-      <c r="B4" t="n">
-        <v>169439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
         <v>1</v>
@@ -1095,66 +1212,62 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6565</v>
       </c>
-      <c r="B5" t="n">
-        <v>97871</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1162,66 +1275,60 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6565</v>
       </c>
-      <c r="B6" t="n">
-        <v>169440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1229,141 +1336,119 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6565</v>
       </c>
-      <c r="B7" t="n">
-        <v>6657</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6565</v>
       </c>
-      <c r="B8" t="n">
-        <v>89257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1371,67 +1456,59 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6565</v>
       </c>
-      <c r="B9" t="n">
-        <v>169441</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>3</v>
@@ -1442,70 +1519,62 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6565</v>
       </c>
-      <c r="B10" t="n">
-        <v>169442</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" t="s">
-        <v>62</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1513,64 +1582,588 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6565</v>
       </c>
-      <c r="B11" t="n">
-        <v>169443</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
         <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6565</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
